--- a/sources/fact_extraction_viewpoint/environment-table20.xlsx
+++ b/sources/fact_extraction_viewpoint/environment-table20.xlsx
@@ -226,7 +226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +260,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,6 +525,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,20 +543,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -850,7 +856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,8 +870,8 @@
   </sheetPr>
   <dimension ref="A1:BK66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1867,21 +1873,21 @@
       <c r="A4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="55" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1923,7 +1929,7 @@
       <c r="M5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="56"/>
+      <c r="N5" s="59"/>
       <c r="O5" s="7"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -2925,7 +2931,7 @@
       <c r="R25" s="13"/>
     </row>
     <row r="26" spans="1:18" ht="30" customHeight="1">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="31">
@@ -2987,7 +2993,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="30" customHeight="1">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="53" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="35">
@@ -3048,7 +3054,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="30" customHeight="1">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="53" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="36">
@@ -3109,7 +3115,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="30" customHeight="1">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="53" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="37">
@@ -3171,7 +3177,7 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="30" customHeight="1">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="54" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="39">
